--- a/InputFiles/TC02_Canine_Filter_StudyType-Transcriptomics.xlsx
+++ b/InputFiles/TC02_Canine_Filter_StudyType-Transcriptomics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9829663-B5BA-4202-A6B1-C61126B47B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D789BD-8FE1-49CB-A8E0-F074643A9F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="380" windowWidth="19200" windowHeight="10190" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -88,24 +88,6 @@
         coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
   </si>
   <si>
-    <t>MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
- MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
-WHERE s.clinical_study_type IN ['Transcriptomics']
-WITH DISTINCT f, parent, c, demo, diag, s
-RETURN coalesce(f.file_name, '') AS `File Name`,
-        coalesce(f.file_type, '') AS `File Type`,
-        coalesce(labels(parent)[0], '') AS `Association`,
-        coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `Format`,
-        coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`,
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
-  </si>
-  <si>
     <t>TabName</t>
   </si>
   <si>
@@ -132,6 +114,22 @@
              count(DISTINCT(samp)) as number_of_sample ,
              count(DISTINCT(c.case_id)) as number_of_cases ,
              count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+ MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+WHERE s.clinical_study_type IN ['Transcriptomics']
+WITH DISTINCT f, parent, c, demo, diag, s
+RETURN coalesce(f.file_name, '') AS `File Name`, 
+        coalesce(labels(parent)[0], '') AS `Association`,
+        coalesce(f.file_description, '') AS `Description`,
+        coalesce(f.file_format, '') AS `Format`,
+        coalesce(f.file_size, '') AS `Size`,
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(diag.disease_term,'') AS Diagnosis , 
+        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
 </sst>
 </file>
@@ -504,7 +502,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,7 +515,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -534,13 +532,13 @@
     </row>
     <row r="2" spans="1:5" ht="261" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -551,13 +549,13 @@
     </row>
     <row r="3" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -568,13 +566,13 @@
     </row>
     <row r="4" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
